--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes).xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9EC92A-FDE2-4E2B-999E-482CE1B09399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F229E-2F1A-4871-94DB-01576528235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Children" sheetId="4" r:id="rId4"/>
     <sheet name="Houses" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3542,14 +3542,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3558,15 +3558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3592,6 +3583,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4223,8 +4223,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E334" sqref="E334"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4243,20 +4243,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="187"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="181"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -4299,52 +4299,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="188" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -4424,15 +4424,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="194"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -4446,15 +4446,15 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="195" t="s">
+      <c r="G17" s="192" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -4534,15 +4534,15 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="195"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -4716,7 +4716,10 @@
       <c r="G38" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="170"/>
+      <c r="H38" s="170">
+        <f>COUNTIFS(CellVille!C3:AM41,Case!G38)</f>
+        <v>6</v>
+      </c>
       <c r="I38" s="170"/>
       <c r="J38" s="170"/>
       <c r="K38" s="170"/>
@@ -4733,7 +4736,7 @@
       <c r="E39" s="42"/>
       <c r="F39" s="20"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="H39" s="170"/>
       <c r="I39" s="45"/>
       <c r="J39" s="45"/>
       <c r="K39" s="45"/>
@@ -4754,12 +4757,17 @@
       <c r="D40" s="48">
         <v>4</v>
       </c>
-      <c r="E40" s="19"/>
+      <c r="E40" s="19">
+        <v>11</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="170"/>
+      <c r="H40" s="170">
+        <f>COUNTIFS(CellVille!C5:AM43,Case!G40)</f>
+        <v>11</v>
+      </c>
       <c r="I40" s="170"/>
       <c r="J40" s="170"/>
       <c r="K40" s="170"/>
@@ -4782,12 +4790,17 @@
       <c r="D41" s="48">
         <v>4</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="19">
+        <v>4</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="170"/>
+      <c r="H41" s="170">
+        <f>COUNTIFS(CellVille!C6:AM44,Case!G41)</f>
+        <v>4</v>
+      </c>
       <c r="I41" s="170"/>
       <c r="J41" s="170"/>
       <c r="K41" s="170"/>
@@ -4810,12 +4823,17 @@
       <c r="D42" s="48">
         <v>4</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="19">
+        <v>101</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="170"/>
+      <c r="H42" s="170">
+        <f>COUNTIFS(CellVille!C7:AM45,Case!G42)</f>
+        <v>101</v>
+      </c>
       <c r="I42" s="170"/>
       <c r="J42" s="170"/>
       <c r="K42" s="170"/>
@@ -4838,12 +4856,17 @@
       <c r="D43" s="48">
         <v>4</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="19">
+        <v>105</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="170"/>
+      <c r="H43" s="170">
+        <f>COUNTIFS(CellVille!C8:AM46,Case!G43)</f>
+        <v>105</v>
+      </c>
       <c r="I43" s="170"/>
       <c r="J43" s="170"/>
       <c r="K43" s="170"/>
@@ -4866,12 +4889,17 @@
       <c r="D44" s="48">
         <v>4</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="19">
+        <v>19</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="170"/>
+      <c r="H44" s="170">
+        <f>COUNTIFS(CellVille!C9:AM47,Case!G44)</f>
+        <v>19</v>
+      </c>
       <c r="I44" s="170"/>
       <c r="J44" s="170"/>
       <c r="K44" s="170"/>
@@ -4894,12 +4922,17 @@
       <c r="D45" s="48">
         <v>4</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="19">
+        <v>5</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="170"/>
+      <c r="H45" s="170">
+        <f>COUNTIFS(CellVille!C10:AM48,Case!G45)</f>
+        <v>5</v>
+      </c>
       <c r="I45" s="170"/>
       <c r="J45" s="170"/>
       <c r="K45" s="170"/>
@@ -4922,12 +4955,17 @@
       <c r="D46" s="48">
         <v>4</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="19">
+        <v>9</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="170"/>
+      <c r="H46" s="170">
+        <f>COUNTIFS(CellVille!C11:AM49,Case!G46)</f>
+        <v>9</v>
+      </c>
       <c r="I46" s="170"/>
       <c r="J46" s="170"/>
       <c r="K46" s="170"/>
@@ -4950,12 +4988,17 @@
       <c r="D47" s="48">
         <v>4</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="19">
+        <v>105</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="170"/>
+      <c r="H47" s="170">
+        <f>COUNTIFS(CellVille!C12:AM50,Case!G47)</f>
+        <v>105</v>
+      </c>
       <c r="I47" s="170"/>
       <c r="J47" s="170"/>
       <c r="K47" s="170"/>
@@ -4978,12 +5021,17 @@
       <c r="D48" s="48">
         <v>4</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="19">
+        <v>1</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="170"/>
+      <c r="H48" s="170">
+        <f>COUNTIFS(CellVille!C13:AM51,Case!G48)</f>
+        <v>1</v>
+      </c>
       <c r="I48" s="170"/>
       <c r="J48" s="170"/>
       <c r="K48" s="170"/>
@@ -5006,12 +5054,17 @@
       <c r="D49" s="48">
         <v>4</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="19">
+        <v>95</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="170"/>
+      <c r="H49" s="170">
+        <f>COUNTIFS(CellVille!C14:AM52,Case!G49)</f>
+        <v>95</v>
+      </c>
       <c r="I49" s="170"/>
       <c r="J49" s="170"/>
       <c r="K49" s="170"/>
@@ -5034,12 +5087,17 @@
       <c r="D50" s="48">
         <v>4</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="19">
+        <v>10</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="170"/>
+      <c r="H50" s="170">
+        <f>COUNTIFS(CellVille!C15:AM53,Case!G50)</f>
+        <v>10</v>
+      </c>
       <c r="I50" s="170"/>
       <c r="J50" s="170"/>
       <c r="K50" s="170"/>
@@ -5062,12 +5120,17 @@
       <c r="D51" s="48">
         <v>4</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="19">
+        <v>1</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="170"/>
+      <c r="H51" s="170">
+        <f>COUNTIFS(CellVille!C16:AM54,Case!G51)</f>
+        <v>1</v>
+      </c>
       <c r="I51" s="170"/>
       <c r="J51" s="170"/>
       <c r="K51" s="170"/>
@@ -5090,12 +5153,17 @@
       <c r="D52" s="48">
         <v>4</v>
       </c>
-      <c r="E52" s="19"/>
+      <c r="E52" s="19">
+        <v>9</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="170"/>
+      <c r="H52" s="170">
+        <f>COUNTIFS(CellVille!C17:AM55,Case!G52)</f>
+        <v>9</v>
+      </c>
       <c r="I52" s="170"/>
       <c r="J52" s="170"/>
       <c r="K52" s="170"/>
@@ -5118,12 +5186,17 @@
       <c r="D53" s="48">
         <v>4</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="E53" s="19">
+        <v>4</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="170"/>
+      <c r="H53" s="170">
+        <f>COUNTIFS(CellVille!C18:AM56,Case!G53)</f>
+        <v>4</v>
+      </c>
       <c r="I53" s="170"/>
       <c r="J53" s="170"/>
       <c r="K53" s="170"/>
@@ -5146,12 +5219,17 @@
       <c r="D54" s="48">
         <v>4</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="19">
+        <v>5</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="170"/>
+      <c r="H54" s="170">
+        <f>COUNTIFS(CellVille!C19:AM57,Case!G54)</f>
+        <v>5</v>
+      </c>
       <c r="I54" s="170"/>
       <c r="J54" s="170"/>
       <c r="K54" s="170"/>
@@ -5174,12 +5252,17 @@
       <c r="D55" s="48">
         <v>4</v>
       </c>
-      <c r="E55" s="19"/>
+      <c r="E55" s="19">
+        <v>5</v>
+      </c>
       <c r="F55" s="20"/>
       <c r="G55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="170"/>
+      <c r="H55" s="170">
+        <f>COUNTIFS(CellVille!C20:AM58,Case!G55)</f>
+        <v>5</v>
+      </c>
       <c r="I55" s="170"/>
       <c r="J55" s="170"/>
       <c r="K55" s="170"/>
@@ -5202,12 +5285,17 @@
       <c r="D56" s="48">
         <v>4</v>
       </c>
-      <c r="E56" s="19"/>
+      <c r="E56" s="19">
+        <v>2</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="170"/>
+      <c r="H56" s="170">
+        <f>COUNTIFS(CellVille!C21:AM59,Case!G56)</f>
+        <v>2</v>
+      </c>
       <c r="I56" s="170"/>
       <c r="J56" s="170"/>
       <c r="K56" s="170"/>
@@ -5230,12 +5318,17 @@
       <c r="D57" s="48">
         <v>4</v>
       </c>
-      <c r="E57" s="19"/>
+      <c r="E57" s="19">
+        <v>2</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="170"/>
+      <c r="H57" s="170">
+        <f>COUNTIFS(CellVille!C22:AM60,Case!G57)</f>
+        <v>2</v>
+      </c>
       <c r="I57" s="170"/>
       <c r="J57" s="170"/>
       <c r="K57" s="170"/>
@@ -5258,12 +5351,17 @@
       <c r="D58" s="48">
         <v>4</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="19">
+        <v>2</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="170"/>
+      <c r="H58" s="170">
+        <f>COUNTIFS(CellVille!C23:AM61,Case!G58)</f>
+        <v>2</v>
+      </c>
       <c r="I58" s="170"/>
       <c r="J58" s="170"/>
       <c r="K58" s="170"/>
@@ -5286,12 +5384,17 @@
       <c r="D59" s="48">
         <v>4</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="19">
+        <v>6</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="170"/>
+      <c r="H59" s="170">
+        <f>COUNTIFS(CellVille!C24:AM62,Case!G59)</f>
+        <v>6</v>
+      </c>
       <c r="I59" s="170"/>
       <c r="J59" s="170"/>
       <c r="K59" s="170"/>
@@ -5321,7 +5424,7 @@
       <c r="D61" s="68"/>
       <c r="E61" s="19" t="str">
         <f>IF(ISERROR(E40),"",E40)&amp;";"&amp;IF(ISERROR(E41),"",E41)&amp;";"&amp;IF(ISERROR(E42),"",E42)&amp;";"&amp;IF(ISERROR(E43),"",E43)&amp;";"&amp;IF(ISERROR(E44),"",E44)&amp;";"&amp;IF(ISERROR(E45),"",E45)&amp;";"&amp;IF(ISERROR(E46),"",E46)&amp;";"&amp;IF(ISERROR(E47),"",E47)&amp;";"&amp;IF(ISERROR(E48),"",E48)&amp;";"&amp;IF(ISERROR(E49),"",E49)&amp;";"&amp;IF(ISERROR(E50),"",E50)&amp;";"&amp;IF(ISERROR(E51),"",E51)&amp;";"&amp;IF(ISERROR(E52),"",E52)&amp;";"&amp;IF(ISERROR(E53),"",E53)&amp;";"&amp;IF(ISERROR(E54),"",E54)&amp;";"&amp;IF(ISERROR(E55),"",E55)&amp;";"&amp;IF(ISERROR(E56),"",E56)&amp;";"&amp;IF(ISERROR(E57),"",E57)&amp;";"&amp;IF(ISERROR(E58),"",E58)&amp;";"&amp;IF(ISERROR(E59),"",E59)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>11;4;101;105;19;5;9;105;1;95;10;1;9;4;5;5;2;2;2;6</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="69"/>
@@ -10667,6 +10770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -10679,11 +10787,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11044,7 +11147,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AU43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
   <cols>
